--- a/biology/Zoologie/Conure_leucotique/Conure_leucotique.xlsx
+++ b/biology/Zoologie/Conure_leucotique/Conure_leucotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura leucotis
 La Conure leucotique (Pyrrhura leucotis), anciennement Conure emma ou Conure à oreillons blancs, est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 22 cm. Proche de la Conure versicolore, il s'en distingue par les zones périauriculaires blanches (au lieu de blanc argenté) et l'extension plus importante de la coloration bleu azur sur le front se retrouvant également sur le dessin écailleux.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau était représenté par cinq sous-espèces jusqu'en 2000 (voir Joseph, 2000 "Beginning an end to 63 years of uncertainty: The Neotropical parakeets known as Pyrrhura picta and P. leucotis comprise more than two species") :
 leucotis à la tête marron et bleue ;
